--- a/tiget/document/테이블명세.xlsx
+++ b/tiget/document/테이블명세.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\project\Tiget\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS50520\Documents\workspace\Tiget\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57DD167-A453-41D2-95A5-7DD5D07E7C3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B60300E8-3416-4F2B-8A15-106CCFD28EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2370" yWindow="2040" windowWidth="27870" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="585" windowWidth="40170" windowHeight="13800" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="사용자정보" sheetId="13" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="213">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -852,6 +852,30 @@
   </si>
   <si>
     <t>concert_loc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>예매링크</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>concert_ticketing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공연형태</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조회수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>concert_type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>concert_views</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1818,8 +1842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E862B38E-A4DF-4FD8-AAD4-089E98885ADD}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -12614,8 +12638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27F95A67-83BB-4437-9E8C-769B804D26C5}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -13541,16 +13565,16 @@
         <v>8</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>62</v>
+        <v>207</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>202</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>149</v>
+        <v>208</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>139</v>
+        <v>203</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
@@ -13563,10 +13587,18 @@
       <c r="B14" s="8">
         <v>9</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
+      <c r="C14" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>93</v>
+      </c>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
@@ -13578,10 +13610,18 @@
       <c r="B15" s="8">
         <v>10</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
+      <c r="C15" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>84</v>
+      </c>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
@@ -13593,10 +13633,18 @@
       <c r="B16" s="8">
         <v>11</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
+      <c r="C16" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>139</v>
+      </c>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>

--- a/tiget/document/테이블명세.xlsx
+++ b/tiget/document/테이블명세.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS50520\Documents\workspace\Tiget\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B60300E8-3416-4F2B-8A15-106CCFD28EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D64A7D-8422-4DCF-8D43-861FEC02824A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="585" windowWidth="40170" windowHeight="13800" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="사용자정보" sheetId="13" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="214">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -311,14 +311,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>주요장르</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022.12.01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>고정문자열(12)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -626,101 +618,98 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>concert_name</t>
+  </si>
+  <si>
+    <t>공연명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공연정보를 저장할 table</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공연정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MySQL 에서 MongoDB 로 DBMS 전환</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bitterns96@gmail.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>국경일목록 table 생성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>h_seq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>h_locdate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>날짜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y/N</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>h_isHoliday</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가변문자열(50)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴일여부</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>h_dateName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>명칭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>국경일 목록을 저장할 table</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전유영</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>국경일목록</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>holidays</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>concert_of_interest</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>artist_of_interest</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>concert_artist</t>
-  </si>
-  <si>
-    <t>concert_name</t>
-  </si>
-  <si>
-    <t>공연명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>공연정보를 저장할 table</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>공연정보</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MySQL 에서 MongoDB 로 DBMS 전환</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bitterns96@gmail.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>국경일목록 table 생성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>h_seq</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>h_locdate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>날짜</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y/N</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(50)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>h_isHoliday</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>가변문자열(50)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>휴일여부</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>h_dateName</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>명칭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>국경일 목록을 저장할 table</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전유영</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>국경일목록</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>holidays</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>concert_of_interest</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>artist_of_interest</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>concert_artist</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -876,6 +865,22 @@
   </si>
   <si>
     <t>concert_views</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFAULT 0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>YYYY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>YYYY-MM-DD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>integer</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2499,7 +2504,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D2" s="38" t="s">
         <v>14</v>
@@ -2535,7 +2540,7 @@
       </c>
       <c r="I3" s="41"/>
       <c r="J3" s="44" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K3" s="45"/>
       <c r="L3" s="16"/>
@@ -2545,7 +2550,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D4" s="36"/>
       <c r="E4" s="36"/>
@@ -2571,7 +2576,7 @@
         <v>7</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>16</v>
@@ -2597,16 +2602,16 @@
         <v>1</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>26</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9" t="s">
@@ -2616,7 +2621,7 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2624,16 +2629,16 @@
         <v>2</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>34</v>
@@ -2649,16 +2654,16 @@
         <v>3</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -2672,22 +2677,22 @@
         <v>4</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H9" s="31" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -2699,16 +2704,16 @@
         <v>5</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
@@ -2722,16 +2727,16 @@
         <v>6</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="30"/>
@@ -2745,16 +2750,16 @@
         <v>7</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
@@ -2933,7 +2938,7 @@
       </c>
       <c r="D27" s="29"/>
       <c r="E27" s="21" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F27" s="21"/>
       <c r="G27" s="21"/>
@@ -3760,7 +3765,7 @@
       </c>
       <c r="I3" s="41"/>
       <c r="J3" s="44" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K3" s="45"/>
       <c r="L3" s="16"/>
@@ -3796,7 +3801,7 @@
         <v>7</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>16</v>
@@ -4899,7 +4904,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D2" s="38" t="s">
         <v>14</v>
@@ -4924,7 +4929,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D3" s="39"/>
       <c r="E3" s="39"/>
@@ -4935,7 +4940,7 @@
       </c>
       <c r="I3" s="41"/>
       <c r="J3" s="44" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K3" s="45"/>
       <c r="L3" s="16"/>
@@ -4945,7 +4950,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D4" s="36"/>
       <c r="E4" s="36"/>
@@ -4971,7 +4976,7 @@
         <v>7</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>16</v>
@@ -4997,19 +5002,19 @@
         <v>1</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H6" s="33" t="s">
         <v>43</v>
@@ -5024,16 +5029,16 @@
         <v>2</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
@@ -5286,7 +5291,7 @@
       </c>
       <c r="D27" s="29"/>
       <c r="E27" s="21" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F27" s="21"/>
       <c r="G27" s="21"/>
@@ -6077,7 +6082,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D2" s="38" t="s">
         <v>14</v>
@@ -6102,7 +6107,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D3" s="39"/>
       <c r="E3" s="39"/>
@@ -6113,7 +6118,7 @@
       </c>
       <c r="I3" s="41"/>
       <c r="J3" s="44" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K3" s="45"/>
       <c r="L3" s="16"/>
@@ -6123,7 +6128,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D4" s="36"/>
       <c r="E4" s="36"/>
@@ -6149,7 +6154,7 @@
         <v>7</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>16</v>
@@ -6175,19 +6180,19 @@
         <v>1</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H6" s="33" t="s">
         <v>43</v>
@@ -6202,16 +6207,16 @@
         <v>2</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
@@ -6225,16 +6230,16 @@
         <v>3</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G8" s="9"/>
       <c r="I8" s="9"/>
@@ -6250,13 +6255,13 @@
         <v>21</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
@@ -6270,16 +6275,16 @@
         <v>5</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="30"/>
@@ -6293,16 +6298,16 @@
         <v>6</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
@@ -6319,13 +6324,13 @@
         <v>19</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
@@ -6339,16 +6344,16 @@
         <v>8</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
@@ -6362,16 +6367,16 @@
         <v>9</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
@@ -6520,7 +6525,7 @@
       </c>
       <c r="D27" s="29"/>
       <c r="E27" s="21" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F27" s="21"/>
       <c r="G27" s="21"/>
@@ -7311,7 +7316,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D2" s="38" t="s">
         <v>14</v>
@@ -7336,7 +7341,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D3" s="39"/>
       <c r="E3" s="39"/>
@@ -7347,7 +7352,7 @@
       </c>
       <c r="I3" s="41"/>
       <c r="J3" s="44" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K3" s="45"/>
       <c r="L3" s="16"/>
@@ -7357,7 +7362,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D4" s="36"/>
       <c r="E4" s="36"/>
@@ -7383,7 +7388,7 @@
         <v>7</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>16</v>
@@ -7409,16 +7414,16 @@
         <v>1</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
@@ -7426,7 +7431,7 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -7434,16 +7439,16 @@
         <v>2</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
@@ -7457,16 +7462,16 @@
         <v>3</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G8" s="9"/>
       <c r="I8" s="9"/>
@@ -7482,13 +7487,13 @@
         <v>19</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
@@ -7502,16 +7507,16 @@
         <v>5</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="30"/>
@@ -7525,16 +7530,16 @@
         <v>6</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
@@ -7553,7 +7558,7 @@
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -7730,7 +7735,7 @@
       </c>
       <c r="D27" s="29"/>
       <c r="E27" s="21" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F27" s="21"/>
       <c r="G27" s="21"/>
@@ -8521,7 +8526,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D2" s="38" t="s">
         <v>14</v>
@@ -8546,7 +8551,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D3" s="39"/>
       <c r="E3" s="39"/>
@@ -8557,7 +8562,7 @@
       </c>
       <c r="I3" s="41"/>
       <c r="J3" s="44" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K3" s="45"/>
       <c r="L3" s="16"/>
@@ -8567,7 +8572,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D4" s="36"/>
       <c r="E4" s="36"/>
@@ -8593,7 +8598,7 @@
         <v>7</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>16</v>
@@ -8619,19 +8624,19 @@
         <v>1</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H6" s="9"/>
       <c r="I6" s="3"/>
@@ -8644,26 +8649,26 @@
         <v>2</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F7" s="32" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
       <c r="L7" s="14" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -8671,16 +8676,16 @@
         <v>3</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9" t="s">
@@ -8699,13 +8704,13 @@
         <v>18</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
@@ -8928,10 +8933,10 @@
         <v>44886</v>
       </c>
       <c r="D27" s="29" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F27" s="21"/>
       <c r="G27" s="21"/>
@@ -8949,10 +8954,10 @@
         <v>44889</v>
       </c>
       <c r="D28" s="29" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F28" s="21"/>
       <c r="G28" s="21"/>
@@ -9770,7 +9775,7 @@
       </c>
       <c r="I3" s="41"/>
       <c r="J3" s="44" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K3" s="45"/>
       <c r="L3" s="16"/>
@@ -9806,7 +9811,7 @@
         <v>7</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>16</v>
@@ -9835,20 +9840,20 @@
         <v>24</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>26</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>34</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>36</v>
@@ -10265,7 +10270,7 @@
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -10946,7 +10951,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D3" s="39"/>
       <c r="E3" s="39"/>
@@ -10957,7 +10962,7 @@
       </c>
       <c r="I3" s="41"/>
       <c r="J3" s="44" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K3" s="45"/>
       <c r="L3" s="16"/>
@@ -10993,7 +10998,7 @@
         <v>7</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>16</v>
@@ -11022,20 +11027,20 @@
         <v>24</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>26</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G6" s="27" t="s">
         <v>34</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>36</v>
@@ -11053,13 +11058,13 @@
         <v>47</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>48</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>33</v>
+        <v>213</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>34</v>
@@ -11452,7 +11457,7 @@
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -12133,7 +12138,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D3" s="39"/>
       <c r="E3" s="39"/>
@@ -12144,7 +12149,7 @@
       </c>
       <c r="I3" s="41"/>
       <c r="J3" s="44" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K3" s="45"/>
       <c r="L3" s="16"/>
@@ -12180,7 +12185,7 @@
         <v>7</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>16</v>
@@ -12209,20 +12214,20 @@
         <v>24</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>26</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G6" s="27" t="s">
         <v>34</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>36</v>
@@ -12240,20 +12245,20 @@
         <v>59</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>60</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>33</v>
+        <v>213</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>34</v>
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J7" s="9" t="s">
         <v>63</v>
@@ -12638,8 +12643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27F95A67-83BB-4437-9E8C-769B804D26C5}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -13295,7 +13300,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D2" s="38" t="s">
         <v>14</v>
@@ -13331,7 +13336,7 @@
       </c>
       <c r="I3" s="41"/>
       <c r="J3" s="44" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K3" s="45"/>
       <c r="L3" s="16"/>
@@ -13341,7 +13346,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D4" s="36"/>
       <c r="E4" s="36"/>
@@ -13367,7 +13372,7 @@
         <v>7</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>16</v>
@@ -13396,13 +13401,13 @@
         <v>47</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>48</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="33" t="s">
@@ -13418,19 +13423,19 @@
         <v>2</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
@@ -13443,16 +13448,16 @@
         <v>3</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G8" s="9"/>
       <c r="I8" s="9"/>
@@ -13465,69 +13470,73 @@
         <v>4</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
-      <c r="L9" s="14"/>
+      <c r="L9" s="14" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="8">
         <v>5</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H10" s="30"/>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
-      <c r="L10" s="14"/>
+      <c r="L10" s="14" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="8">
         <v>6</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
@@ -13540,16 +13549,16 @@
         <v>7</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E12" s="35" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F12" s="35" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G12" s="35" t="s">
         <v>34</v>
@@ -13565,16 +13574,16 @@
         <v>8</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
@@ -13588,16 +13597,16 @@
         <v>9</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
@@ -13611,18 +13620,20 @@
         <v>10</v>
       </c>
       <c r="C15" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="G15" s="9"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -13633,18 +13644,10 @@
       <c r="B16" s="8">
         <v>11</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>139</v>
-      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
@@ -13762,7 +13765,7 @@
       </c>
       <c r="D27" s="29"/>
       <c r="E27" s="21" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F27" s="21"/>
       <c r="G27" s="21"/>
@@ -14589,7 +14592,7 @@
       </c>
       <c r="I3" s="41"/>
       <c r="J3" s="44" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K3" s="45"/>
       <c r="L3" s="16"/>
@@ -14625,7 +14628,7 @@
         <v>7</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>16</v>
@@ -14954,10 +14957,10 @@
         <v>44896</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F27" s="21"/>
       <c r="G27" s="21"/>
@@ -15091,8 +15094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98D11E7D-B331-40B7-9C35-EEA0AE6011FF}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -15748,7 +15751,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D2" s="38" t="s">
         <v>14</v>
@@ -15773,7 +15776,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D3" s="39"/>
       <c r="E3" s="39"/>
@@ -15784,7 +15787,7 @@
       </c>
       <c r="I3" s="41"/>
       <c r="J3" s="44" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K3" s="45"/>
       <c r="L3" s="16"/>
@@ -15794,7 +15797,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D4" s="36"/>
       <c r="E4" s="36"/>
@@ -15820,7 +15823,7 @@
         <v>7</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>16</v>
@@ -15849,13 +15852,13 @@
         <v>47</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>48</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>33</v>
+        <v>213</v>
       </c>
       <c r="G6" s="27" t="s">
         <v>34</v>
@@ -15880,20 +15883,20 @@
         <v>59</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>60</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>33</v>
+        <v>213</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>34</v>
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J7" s="9" t="s">
         <v>64</v>
@@ -15913,7 +15916,7 @@
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -16279,7 +16282,7 @@
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -16971,7 +16974,7 @@
       </c>
       <c r="I3" s="41"/>
       <c r="J3" s="44" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K3" s="45"/>
       <c r="L3" s="16"/>
@@ -17007,7 +17010,7 @@
         <v>7</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>16</v>
@@ -17064,7 +17067,7 @@
         <v>27</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>32</v>
@@ -17089,7 +17092,7 @@
         <v>28</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>33</v>
@@ -17100,7 +17103,7 @@
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c r="L8" s="26" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -17108,16 +17111,16 @@
         <v>4</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
@@ -17134,13 +17137,13 @@
         <v>68</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
@@ -17148,25 +17151,17 @@
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c r="L10" s="14" t="s">
-        <v>70</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="8">
         <v>6</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>33</v>
-      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
@@ -17488,7 +17483,7 @@
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -18144,7 +18139,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D2" s="38" t="s">
         <v>14</v>
@@ -18169,7 +18164,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D3" s="39"/>
       <c r="E3" s="39"/>
@@ -18180,7 +18175,7 @@
       </c>
       <c r="I3" s="41"/>
       <c r="J3" s="44" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K3" s="45"/>
       <c r="L3" s="16"/>
@@ -18190,7 +18185,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D4" s="36"/>
       <c r="E4" s="36"/>
@@ -18216,7 +18211,7 @@
         <v>7</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>16</v>
@@ -18245,20 +18240,20 @@
         <v>59</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="E6" s="27" t="s">
         <v>60</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>33</v>
+        <v>213</v>
       </c>
       <c r="G6" s="27" t="s">
         <v>34</v>
       </c>
       <c r="H6" s="27"/>
       <c r="I6" s="27" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>64</v>
@@ -18308,7 +18303,7 @@
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="H8" s="9" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
